--- a/Base/Teams/Chargers/Distributions.xlsx
+++ b/Base/Teams/Chargers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9423442313843617, 0.7438471764799361, 1.1722911981477675, 2.9122174301209407)</t>
-  </si>
-  <si>
-    <t>NIG(1.9116029556264689, 1.441178932116651, 3.4830727119847373, 6.714207469149544)</t>
-  </si>
-  <si>
-    <t>NIG(0.9489020526134451, 0.6234443833579786, 2.038483556617625, 3.25296009198036)</t>
-  </si>
-  <si>
-    <t>NIG(1.425534766899928, 1.150866345116337, 3.3531151804918577, 5.46651015464975)</t>
+    <t>NIG(0.9350182015169541, 0.7215865475379349, 1.2050586718768215, 2.962377345561885)</t>
+  </si>
+  <si>
+    <t>NIG(1.5536233776028512, 1.1722367097333215, 3.890168246486606, 6.4419561610417615)</t>
+  </si>
+  <si>
+    <t>NIG(0.9058715529053472, 0.5724641417201535, 2.142502087739297, 3.2976998183257273)</t>
+  </si>
+  <si>
+    <t>NIG(1.5821957793882755, 1.2693294428741209, 3.283708102835247, 5.732754498679566)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Chargers/Distributions.xlsx
+++ b/Base/Teams/Chargers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9350182015169541, 0.7215865475379349, 1.2050586718768215, 2.962377345561885)</t>
-  </si>
-  <si>
-    <t>NIG(1.5536233776028512, 1.1722367097333215, 3.890168246486606, 6.4419561610417615)</t>
-  </si>
-  <si>
-    <t>NIG(0.9058715529053472, 0.5724641417201535, 2.142502087739297, 3.2976998183257273)</t>
-  </si>
-  <si>
-    <t>NIG(1.5821957793882755, 1.2693294428741209, 3.283708102835247, 5.732754498679566)</t>
+    <t>NIG(1.0196232996448211, 0.7935034002069985, 1.1052023992871707, 2.941813241995588)</t>
+  </si>
+  <si>
+    <t>NIG(1.4037115723397222, 1.0644434441592936, 4.103300018528145, 6.223297131827735)</t>
+  </si>
+  <si>
+    <t>NCT(3.437347556551492, 1.3879533321118818, -0.12946529077385394, 2.716830113383709)</t>
+  </si>
+  <si>
+    <t>NIG(1.5171266651900308, 1.223947504252327, 3.247538070580579, 5.680925933650009)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Chargers/Distributions.xlsx
+++ b/Base/Teams/Chargers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.0196232996448211, 0.7935034002069985, 1.1052023992871707, 2.941813241995588)</t>
-  </si>
-  <si>
-    <t>NIG(1.4037115723397222, 1.0644434441592936, 4.103300018528145, 6.223297131827735)</t>
-  </si>
-  <si>
-    <t>NCT(3.437347556551492, 1.3879533321118818, -0.12946529077385394, 2.716830113383709)</t>
-  </si>
-  <si>
-    <t>NIG(1.5171266651900308, 1.223947504252327, 3.247538070580579, 5.680925933650009)</t>
+    <t>NIG(1.071259418298716, 0.8527536794795421, 1.0596515370491082, 2.832002970724148)</t>
+  </si>
+  <si>
+    <t>NIG(1.5154813741650255, 1.140267621814706, 4.186618324053942, 6.301943055581725)</t>
+  </si>
+  <si>
+    <t>NCT(3.0469882318656794, 1.4869425054088128, -0.3788296077850717, 2.5713244311430503)</t>
+  </si>
+  <si>
+    <t>NIG(1.4070847904933308, 1.1391747949350637, 3.3961181920734598, 5.736977077035787)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Chargers/Distributions.xlsx
+++ b/Base/Teams/Chargers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.071259418298716, 0.8527536794795421, 1.0596515370491082, 2.832002970724148)</t>
-  </si>
-  <si>
-    <t>NIG(1.5154813741650255, 1.140267621814706, 4.186618324053942, 6.301943055581725)</t>
-  </si>
-  <si>
-    <t>NCT(3.0469882318656794, 1.4869425054088128, -0.3788296077850717, 2.5713244311430503)</t>
-  </si>
-  <si>
-    <t>NIG(1.4070847904933308, 1.1391747949350637, 3.3961181920734598, 5.736977077035787)</t>
+    <t>JSU(-1.034126353949444, 1.1118527362954551, 0.5690569587064784, 2.52671880263419)</t>
+  </si>
+  <si>
+    <t>NIG(1.3287203721622989, 1.0107625990493978, 4.475671666169665, 5.867890327889075)</t>
+  </si>
+  <si>
+    <t>NCT(3.0266367271342656, 1.3206370410235402, -0.007913798292498282, 2.620452703406555)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3371489800552223, 1.195000257472815, 1.9353175993145326, 4.917654882011699)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Chargers/Distributions.xlsx
+++ b/Base/Teams/Chargers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.034126353949444, 1.1118527362954551, 0.5690569587064784, 2.52671880263419)</t>
-  </si>
-  <si>
-    <t>NIG(1.3287203721622989, 1.0107625990493978, 4.475671666169665, 5.867890327889075)</t>
-  </si>
-  <si>
-    <t>NCT(3.0266367271342656, 1.3206370410235402, -0.007913798292498282, 2.620452703406555)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3371489800552223, 1.195000257472815, 1.9353175993145326, 4.917654882011699)</t>
+    <t>NIG(1.0118548668990655, 0.7726613778350778, 1.1562842043897095, 2.938328189687746)</t>
+  </si>
+  <si>
+    <t>NIG(1.3760349876318032, 1.0573586881370223, 4.318090560111765, 5.778994955972886)</t>
+  </si>
+  <si>
+    <t>NCT(3.099554074038097, 1.419277526749148, -0.45980177100041486, 2.7171635131087912)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2973905136434918, 1.1963036930864677, 1.9029651265620724, 5.097354282656984)</t>
   </si>
 </sst>
 </file>
